--- a/projects/IOdata/data/GR2018_mappings.xlsx
+++ b/projects/IOdata/data/GR2018_mappings.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\GPM_v071\projects\CGE_Generator\data\IO2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\CGE_Generator\projects\IOdata\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Energivaremapping" sheetId="1" r:id="rId1"/>
@@ -769,7 +769,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -861,9 +861,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2614,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,7 +4744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:XFD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>

--- a/projects/IOdata/data/GR2018_mappings.xlsx
+++ b/projects/IOdata/data/GR2018_mappings.xlsx
@@ -1148,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F147"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,9 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4745,7 +4743,7 @@
   <dimension ref="A9:XFD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
